--- a/biology/Médecine/Aemilia_Hilaria/Aemilia_Hilaria.xlsx
+++ b/biology/Médecine/Aemilia_Hilaria/Aemilia_Hilaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aemilia Hilaria (c. 300 – c. 363)[1] est une médecin romaine d'origine gallo-romaine. Elle a pratiqué la médecine, et a écrit des livres sur la gynécologie et l'obstétrique. Elle a été nommée Hilaria en raison de sa bonne humeur lorsqu'elle était nourrisson[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aemilia Hilaria (c. 300 – c. 363) est une médecin romaine d'origine gallo-romaine. Elle a pratiqué la médecine, et a écrit des livres sur la gynécologie et l'obstétrique. Elle a été nommée Hilaria en raison de sa bonne humeur lorsqu'elle était nourrisson.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aemilia naît dans l'Empire Romain, dans une zone géographique proche de l'actuelle  Moselle en France. Adulte, elle continue à y vivre et devient médecin[1]. Elle est la tante maternelle d'Ausone, personnalité gallo-romaine qui devint le précepteur de l'empereur Gratien. Ausone a écrit une série de poèmes biographiques sur les membres de sa famille, y compris Aemilia, appelées Parentalia[3]. Le poème rédigé sur Aemilia la décrit comme une « vierge dévouée » qui rejette le mariage afin de poursuivre sa carrière. Il la décrit comme « formée aux arts médicaux comme n'importe quel homme[4] ». Il la qualifie de médecin honnête et talentueux, qui a aussi aidé son frère médecin dans ses propres études[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aemilia naît dans l'Empire Romain, dans une zone géographique proche de l'actuelle  Moselle en France. Adulte, elle continue à y vivre et devient médecin. Elle est la tante maternelle d'Ausone, personnalité gallo-romaine qui devint le précepteur de l'empereur Gratien. Ausone a écrit une série de poèmes biographiques sur les membres de sa famille, y compris Aemilia, appelées Parentalia. Le poème rédigé sur Aemilia la décrit comme une « vierge dévouée » qui rejette le mariage afin de poursuivre sa carrière. Il la décrit comme « formée aux arts médicaux comme n'importe quel homme ». Il la qualifie de médecin honnête et talentueux, qui a aussi aidé son frère médecin dans ses propres études.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aemilia figure parmi les 1 038 femmes présentes dans l'installation artistique The Dinner Party, réalisée par Judy Chicago[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aemilia figure parmi les 1 038 femmes présentes dans l'installation artistique The Dinner Party, réalisée par Judy Chicago.
 </t>
         </is>
       </c>
